--- a/Docs/peças.xlsx
+++ b/Docs/peças.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conradt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sconr\Documents\GitHub\choppbot\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078D55EB-955D-4327-A2CD-F7D05DD32A52}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{771160C2-2908-4DA1-89F7-6588201FD461}"/>
   </bookViews>
   <sheets>
-    <sheet name="peças" sheetId="1" r:id="rId1"/>
+    <sheet name="peças custo" sheetId="1" r:id="rId1"/>
     <sheet name="biometrico" sheetId="3" r:id="rId2"/>
     <sheet name="tela" sheetId="2" r:id="rId3"/>
     <sheet name="rfid" sheetId="4" r:id="rId4"/>
@@ -29,151 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
-    <r>
-      <t>A.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3x solenoid NF </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3x Medidor de fluxo </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3x Reles para solenoid – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Flavio ja tem</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1x Placa Arduino com min 3 entradas de pulso (digital), saida / entrada monitor touch, modulo SD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fonte para solenoids, medidor, placa, gravadores e leitores</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gravador / leitor Biometrico</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>J.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Xx) Engates rapidos para solenoid e medidor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>L.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1x FOB para teste</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>M.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mangueiras</t>
-    </r>
-  </si>
-  <si>
     <t>amazon</t>
   </si>
   <si>
@@ -187,36 +43,6 @@
   </si>
   <si>
     <t>qtd</t>
-  </si>
-  <si>
-    <r>
-      <t>F.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Monitor 7 ” touch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leitor / Gravador RFID</t>
-    </r>
   </si>
   <si>
     <t>buydisplay.com</t>
@@ -355,17 +181,192 @@
   </si>
   <si>
     <r>
+      <t>A.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3x solenoid NF </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3x Medidor de fluxo </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3x Reles para solenoid – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flavio ja tem</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1x Placa Arduino com min 3 entradas de pulso (digital), saida / entrada monitor touch, modulo SD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fonte para solenoids, medidor, placa, gravadores e leitores</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monitor 7 ” touch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leitor / Gravador RFID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gravador / leitor Biometrico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>J.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Xx) Engates rapidos para solenoid e medidor</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>K.6</t>
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">x Valv eng rapido abre e fecha para emergencia do Sistema </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1x FOB para teste</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mangueiras</t>
     </r>
   </si>
 </sst>
@@ -376,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,25 +388,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="+mj-lt"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,6 +425,32 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="+mj-lt"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -491,54 +499,55 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -859,245 +868,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F2789E-A2BC-44C9-AF2E-115D3D379734}">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="152" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="111.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="10"/>
+    <col min="6" max="6" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="E1" s="2">
+      <c r="E1" s="10">
         <v>3.5</v>
       </c>
     </row>
     <row r="2" spans="2:8">
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="23.25">
-      <c r="B3" s="15" t="s">
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="13">
         <v>7.49</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <f>E3*$E$1*D3</f>
         <v>78.644999999999996</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="23.25">
-      <c r="B4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="17">
+    <row r="4" spans="2:8">
+      <c r="B4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
         <v>3</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="13">
         <v>9.49</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <f>E4*$E$1*D4</f>
         <v>99.64500000000001</v>
       </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="2:8" ht="23.25">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="17">
         <f t="shared" ref="F5:F14" si="0">E5*$E$1*D5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="23.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
+    <row r="6" spans="2:8">
+      <c r="B6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="23.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6">
+    <row r="7" spans="2:8">
+      <c r="B7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="23.25">
-      <c r="B8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="17">
+    <row r="8" spans="2:8">
+      <c r="B8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13">
         <v>1</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>41</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="14">
         <f t="shared" si="0"/>
         <v>143.5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="23.25">
-      <c r="B9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="17">
+    <row r="9" spans="2:8">
+      <c r="B9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
         <v>1</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="13">
         <v>7.98</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>27.93</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="23.25">
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="17">
+    <row r="10" spans="2:8">
+      <c r="B10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
         <v>1</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="13">
         <v>32.99</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="14">
         <f t="shared" si="0"/>
         <v>115.465</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="23.25">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2">
+    <row r="11" spans="2:8">
+      <c r="B11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="10">
         <v>20</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="23.25">
-      <c r="B12" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="17">
+    <row r="12" spans="2:8">
+      <c r="B12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
         <v>1</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="13">
         <v>15</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="14">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="23.25">
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2">
+    <row r="13" spans="2:8">
+      <c r="B13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="10">
         <v>60</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="18">
         <f>E13*$E$1</f>
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="23.25">
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2">
+    <row r="14" spans="2:8">
+      <c r="B14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="10">
         <v>20</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="F15" s="3"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="F16" s="3"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="F17" s="3"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="19">
         <f>SUM(F3:F17)-G13</f>
         <v>307.68500000000006</v>
       </c>
     </row>
     <row r="19" spans="5:6">
-      <c r="F19" s="3"/>
+      <c r="F19" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1112,108 +1124,108 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="12" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="12" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="12" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1244,118 +1256,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57">
-      <c r="A4" s="8" t="s">
+    <row r="12" spans="1:3" ht="42.75">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C12" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42.75">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="142.5">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5">
-      <c r="A6" s="8">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C13" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.5">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="C14" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.5">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="16.5">
-      <c r="A10" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.5">
-      <c r="A11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="42.75">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="42.75">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.5">
-      <c r="A14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="8">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.5">
-      <c r="A15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="C15" s="2">
         <v>14</v>
       </c>
     </row>
@@ -1379,8 +1391,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>56</v>
+      <c r="A1" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
